--- a/doc/testdocs/demo8.xlsx
+++ b/doc/testdocs/demo8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>David</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>Martinez</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
+  </si>
+  <si>
+    <t>ÁÉÍÓÚ</t>
   </si>
 </sst>
 </file>
@@ -368,10 +377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,6 +407,17 @@
         <v>41</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
